--- a/datasety/jogurty.xlsx
+++ b/datasety/jogurty.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vvr24\OneDrive\Počítač\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804FFC34-8BE9-485B-9462-3EC76C521600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Odpovědi formuláře 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Odpovědi formuláře 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="13">
   <si>
-    <t>Časová značka</t>
-  </si>
-  <si>
     <t>Produkt</t>
   </si>
   <si>
     <t>Vyrobca</t>
-  </si>
-  <si>
-    <t>Vzhľad</t>
-  </si>
-  <si>
-    <t>Vôňa</t>
-  </si>
-  <si>
-    <t>Chuť</t>
-  </si>
-  <si>
-    <t>Textura</t>
-  </si>
-  <si>
-    <t>Celkový dojem</t>
   </si>
   <si>
     <t>Jogurt</t>
@@ -51,68 +42,93 @@
   <si>
     <t>D</t>
   </si>
+  <si>
+    <t>Cas</t>
+  </si>
+  <si>
+    <t>vzhlad</t>
+  </si>
+  <si>
+    <t>vona</t>
+  </si>
+  <si>
+    <t>chut</t>
+  </si>
+  <si>
+    <t>textura</t>
+  </si>
+  <si>
+    <t>celkovydojem</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -302,2036 +318,2039 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.71"/>
-    <col customWidth="1" min="2" max="2" width="18.0"/>
-    <col customWidth="1" min="3" max="3" width="12.86"/>
-    <col customWidth="1" min="4" max="4" width="13.86"/>
-    <col customWidth="1" min="5" max="5" width="13.14"/>
-    <col customWidth="1" min="6" max="6" width="11.86"/>
-    <col customWidth="1" min="7" max="7" width="12.57"/>
-    <col customWidth="1" min="8" max="8" width="16.14"/>
-    <col customWidth="1" min="9" max="14" width="21.57"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="14" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>44474.46439255787</v>
+        <v>44474.464392557871</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H2" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44474.47456998842</v>
+        <v>44474.474569988422</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>44474.58394306713</v>
+        <v>44474.583943067133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44474.584052453705</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>44474.58410097222</v>
+        <v>44474.584100972221</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>44474.58416049769</v>
+        <v>44474.584160497689</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H7" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44474.58428443287</v>
+        <v>44474.584284432873</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H8" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44474.58430390046</v>
+        <v>44474.584303900461</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H9" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44474.584383379624</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G10" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H10" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44474.584413460645</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H11" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44474.584466643515</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E12" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G12" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H12" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>44474.58452576389</v>
+        <v>44474.584525763887</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44474.58468980324</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F14" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H14" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>44474.58477435185</v>
+        <v>44474.584774351853</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G15" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H15" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>44474.58477646991</v>
+        <v>44474.584776469907</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H16" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44474.58486101852</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G17" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>44474.58528554398</v>
+        <v>44474.585285543981</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F18" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H18" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44474.585818865744</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F19" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H19" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44474.592160914355</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E20" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F20" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G20" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H20" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44474.59219625</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E21" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H21" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>44474.59222679398</v>
+        <v>44474.592226793982</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F22" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H22" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>44474.59224751157</v>
+        <v>44474.592247511573</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D23" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E23" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F23" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G23" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H23" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44474.592299236116</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E24" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G24" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H24" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>44474.59238288194</v>
+        <v>44474.592382881943</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E25" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G25" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>44474.59244123843</v>
+        <v>44474.592441238427</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F26" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G26" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>44474.59247340278</v>
+        <v>44474.592473402779</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F27" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G27" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H27" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>44474.59253501157</v>
+        <v>44474.592535011572</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F28" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G28" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H28" s="2">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>44474.59256251158</v>
+        <v>44474.592562511578</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F29" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G29" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H29" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>44474.59257465278</v>
+        <v>44474.592574652779</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E30" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G30" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H30" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>44474.59258861111</v>
+        <v>44474.592588611107</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D31" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E31" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F31" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G31" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H31" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44474.592673657404</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E32" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F32" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G32" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H32" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>44474.59270628472</v>
+        <v>44474.592706284719</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E33" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F33" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G33" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H33" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>44474.592734247686</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E34" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F34" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G34" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H34" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>44474.59280621528</v>
+        <v>44474.592806215282</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D35" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E35" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F35" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G35" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H35" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44474.592954884254</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E36" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F36" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G36" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H36" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>44474.59297924768</v>
+        <v>44474.592979247682</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D37" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E37" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F37" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G37" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H37" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44474.592994652776</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D38" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E38" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F38" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G38" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H38" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>44474.59311099537</v>
+        <v>44474.593110995367</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D39" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E39" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F39" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G39" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H39" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>44474.68069527778</v>
+        <v>44474.680695277777</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>4</v>
+      </c>
+      <c r="E40" s="2">
+        <v>8</v>
+      </c>
+      <c r="F40" s="2">
+        <v>8</v>
+      </c>
+      <c r="G40" s="2">
         <v>9</v>
       </c>
-      <c r="D40" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="E40" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F40" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="G40" s="2">
-        <v>9.0</v>
-      </c>
       <c r="H40" s="2">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>44474.68070519676</v>
+        <v>44474.680705196763</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D41" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E41" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F41" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G41" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H41" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>44474.68072373843</v>
+        <v>44474.680723738427</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E42" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F42" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G42" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H42" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>44474.680765428246</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2">
         <v>9</v>
       </c>
-      <c r="D43" s="2">
-        <v>9.0</v>
-      </c>
       <c r="E43" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G43" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H43" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44474.68114792824</v>
+        <v>44474.681147928241</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2">
+        <v>7</v>
+      </c>
+      <c r="G44" s="2">
+        <v>7</v>
+      </c>
+      <c r="H44" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>44474.681428043987</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2">
+        <v>6</v>
+      </c>
+      <c r="G45" s="2">
         <v>9</v>
       </c>
-      <c r="D44" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="E44" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F44" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="G44" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="H44" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3">
-        <v>44474.68142804399</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="H45" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44474.682530069447</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2">
         <v>9</v>
       </c>
-      <c r="D45" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="E45" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="H45" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3">
-        <v>44474.68253006945</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="E46" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="F46" s="2">
-        <v>9.0</v>
-      </c>
       <c r="G46" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H46" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44474.682626319445</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D47" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E47" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F47" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G47" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H47" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>44474.682639328705</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D48" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E48" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F48" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G48" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H48" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>44474.682653587966</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D49" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E49" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F49" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G49" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H49" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>44474.6827094676</v>
+        <v>44474.682709467597</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D50" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F50" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G50" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H50" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>44474.68322796296</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D51" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E51" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F51" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G51" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H51" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>44474.68445940972</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D52" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E52" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F52" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G52" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H52" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>44474.68478616898</v>
+        <v>44474.684786168982</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D53" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E53" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F53" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G53" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H53" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>44474.685121539354</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D54" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E54" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F54" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G54" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H54" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>44474.6853346875</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D55" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E55" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F55" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G55" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H55" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>44474.69211520834</v>
+        <v>44474.692115208338</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D56" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E56" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F56" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G56" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H56" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>44474.69215652777</v>
+        <v>44474.692156527773</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D57" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E57" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F57" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G57" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H57" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44474.692209953704</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D58" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E58" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G58" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H58" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44474.692223969905</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D59" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F59" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G59" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44474.692340520836</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D60" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E60" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F60" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G60" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H60" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>44474.6923847338</v>
+        <v>44474.692384733797</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D61" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F61" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G61" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H61" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>44474.69241754629</v>
+        <v>44474.692417546292</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D62" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E62" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F62" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G62" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H62" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>44474.69247006944</v>
+        <v>44474.692470069444</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D63" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E63" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F63" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G63" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H63" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>44474.69273189815</v>
+        <v>44474.692731898147</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D64" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E64" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F64" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G64" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H64" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>44474.69276825232</v>
+        <v>44474.692768252316</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D65" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E65" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F65" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G65" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H65" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>44474.69308350694</v>
+        <v>44474.693083506943</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D66" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E66" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F66" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G66" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H66" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>44474.69333671297</v>
+        <v>44474.693336712968</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D67" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E67" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F67" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G67" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H67" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44474.693612233794</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D68" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E68" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F68" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G68" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H68" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44474.693844814814</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D69" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E69" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F69" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G69" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H69" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44474.693934201394</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D70" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E70" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F70" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G70" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H70" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>44474.69399849537</v>
+        <v>44474.693998495371</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D71" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E71" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F71" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G71" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H71" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44474.69402761574</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D72" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E72" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F72" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G72" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H72" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>44474.69405800926</v>
+        <v>44474.694058009263</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D73" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E73" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F73" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G73" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H73" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>44474.69410299769</v>
+        <v>44474.694102997688</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D74" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E74" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F74" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G74" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H74" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>44474.69418194445</v>
+        <v>44474.694181944447</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D75" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E75" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F75" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G75" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H75" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>44474.69432359954</v>
+        <v>44474.694323599542</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D76" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E76" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F76" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G76" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H76" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44474.694638773144</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D77" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E77" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F77" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G77" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H77" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>